--- a/Selenium/src/test/resources/data/TestCase.xlsx
+++ b/Selenium/src/test/resources/data/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620"/>
+    <workbookView windowWidth="27945" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -60,85 +60,91 @@
     <t>Đăng ký người dùng</t>
   </si>
   <si>
+    <t>1. Khởi chạy trình duyệt và điều hướng đến url 'http://automationexercise.com'</t>
+  </si>
+  <si>
+    <t>Open browser</t>
+  </si>
+  <si>
+    <t>http://automationexercise.com</t>
+  </si>
+  <si>
+    <t>3. Xác minh rằng trang chủ đã hiển thị thành công</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>4. Nhấp vào nút 'Signup/Login'</t>
+  </si>
+  <si>
+    <t>5. Xác minh 'New User Signup!' có hiển thị không</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>//a[@href='/login']</t>
+  </si>
+  <si>
+    <t>6. Nhập name</t>
+  </si>
+  <si>
+    <t>Get value</t>
+  </si>
+  <si>
+    <t>//div[@class='signup-form']//h2</t>
+  </si>
+  <si>
+    <t>7. Nhập email address</t>
+  </si>
+  <si>
+    <t>Set value</t>
+  </si>
+  <si>
+    <t>//input[@data-qa='signup-name']</t>
+  </si>
+  <si>
+    <t>8. Nhấp vào nút 'Signup'</t>
+  </si>
+  <si>
+    <t>//input[@data-qa='signup-email']</t>
+  </si>
+  <si>
+    <t>9. Kiểm tra xem 'ENTER ACCOUNT INFORMATION' có hiển thị không</t>
+  </si>
+  <si>
+    <t>//button[@data-qa='signup-button']</t>
+  </si>
+  <si>
+    <t>10. Điền thông tin: Title, Password, Date of birth</t>
+  </si>
+  <si>
+    <t>//div[@class="login-form"]/h2/b</t>
+  </si>
+  <si>
+    <t>#password</t>
+  </si>
+  <si>
+    <t>11. Chọn hộp kiểm 'Sign up for our newsletter!'</t>
+  </si>
+  <si>
+    <t>12. Chọn hộp kiểm 'Receive special offers from our partners!'</t>
+  </si>
+  <si>
+    <t>#newsletter</t>
+  </si>
+  <si>
+    <t>#optin</t>
+  </si>
+  <si>
     <t>1. Khởi chạy trình duyệt</t>
   </si>
   <si>
-    <t>Open browser</t>
+    <t>Đăng nhập người dùng bằng email và mật khẩu chính xác</t>
   </si>
   <si>
     <t>2. Điều hướng đến url 'http://automationexercise.com'</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>3. Xác minh rằng trang chủ đã hiển thị thành công</t>
-  </si>
-  <si>
-    <t>4. Nhấp vào nút 'Signup/Login'</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>//a[@href='/login']</t>
-  </si>
-  <si>
-    <t>5. Xác minh 'New User Signup!' có hiển thị không</t>
-  </si>
-  <si>
-    <t>Get value</t>
-  </si>
-  <si>
-    <t>//div[@class='signup-form']//h2</t>
-  </si>
-  <si>
-    <t>6. Nhập name</t>
-  </si>
-  <si>
-    <t>Set value</t>
-  </si>
-  <si>
-    <t>//input[@data-qa='signup-name']</t>
-  </si>
-  <si>
-    <t>7. Nhập email address</t>
-  </si>
-  <si>
-    <t>//input[@data-qa='signup-email']</t>
-  </si>
-  <si>
-    <t>8. Nhấp vào nút 'Signup'</t>
-  </si>
-  <si>
-    <t>//button[@data-qa='signup-button']</t>
-  </si>
-  <si>
-    <t>9. Kiểm tra xem 'ENTER ACCOUNT INFORMATION' có hiển thị không</t>
-  </si>
-  <si>
-    <t>//div[@class="login-form"]/h2/b</t>
-  </si>
-  <si>
-    <t>10. Điền thông tin: Title, Password, Date of birth</t>
-  </si>
-  <si>
-    <t>#password</t>
-  </si>
-  <si>
-    <t>11. Chọn hộp kiểm 'Sign up for our newsletter!'</t>
-  </si>
-  <si>
-    <t>#newsletter</t>
-  </si>
-  <si>
-    <t>12. Chọn hộp kiểm 'Receive special offers from our partners!'</t>
-  </si>
-  <si>
-    <t>#optin</t>
-  </si>
-  <si>
-    <t>Đăng nhập người dùng bằng email và mật khẩu chính xác</t>
   </si>
   <si>
     <t>5. Xác minh 'Login to your account' có hiển thị không</t>
@@ -797,32 +803,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -839,17 +856,6 @@
       <bottom style="medium">
         <color rgb="FFDDDDDD"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1189,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,54 +1238,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1289,7 +1301,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
@@ -1834,7 +1846,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1875,439 +1887,439 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:6">
+    <row r="2" ht="27.75" spans="1:7">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="15.75" spans="1:6">
       <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" ht="15.75" spans="1:6">
       <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" ht="15.75" spans="1:6">
       <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>17</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:6">
       <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>20</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:6">
+      <c r="E7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:6">
+      <c r="D8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="19" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:6">
+      <c r="D9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="19" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="25" t="s">
         <v>29</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="18" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="21" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="1:6">
+      <c r="F14" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="18" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" ht="15.75" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:6">
+      <c r="B16" s="18"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:6">
+      <c r="B17" s="18"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:6">
       <c r="A20" s="13">
         <v>2</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="B20" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:6">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="13"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" ht="15.75" spans="1:6">
+      <c r="B21" s="34"/>
+      <c r="C21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="13"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="13"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" ht="15.75" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="13"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="13"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="13"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" ht="15.75" spans="1:6">
+      <c r="B27" s="34"/>
+      <c r="C27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="13">
         <v>3</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="B28" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" ht="15.75" spans="1:6">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="13"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" ht="15.75" spans="1:6">
+      <c r="B29" s="34"/>
+      <c r="C29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="13"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="13"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="13"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="13"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="13"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="B35" s="34"/>
+      <c r="D35" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2317,15 +2329,14 @@
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B20:B27"/>
     <mergeCell ref="B28:B35"/>
-    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D11:D13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="2. Điều hướng đến url 'http://automationexercise.com'" tooltip="https://automationexercise.com/"/>
+    <hyperlink ref="C20" r:id="rId1" display="2. Điều hướng đến url 'http://automationexercise.com'" tooltip="https://automationexercise.com/"/>
+    <hyperlink ref="B28" r:id="rId2" location="collapse3" display="Đăng nhập người dùng bằng email và mật khẩu không đúng"/>
     <hyperlink ref="B20" r:id="rId2" location="collapse2" display="Đăng nhập người dùng bằng email và mật khẩu chính xác"/>
-    <hyperlink ref="C21" r:id="rId1" display="2. Điều hướng đến url 'http://automationexercise.com'" tooltip="https://automationexercise.com/"/>
-    <hyperlink ref="B28" r:id="rId2" location="collapse3" display="Đăng nhập người dùng bằng email và mật khẩu không đúng"/>
-    <hyperlink ref="C29" r:id="rId1" display="2. Điều hướng đến url 'http://automationexercise.com'" tooltip="https://automationexercise.com/"/>
+    <hyperlink ref="C28" r:id="rId1" display="2. Điều hướng đến url 'http://automationexercise.com'" tooltip="https://automationexercise.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2352,180 +2363,180 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4">
         <v>2020602666</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4">
         <v>2020601225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4">
         <v>2020601211</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="4">
         <v>2020603025</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4">
         <v>2020600654</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4">
         <v>2020600469</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4">
         <v>2020600782</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5">
         <v>2020603743</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="27.75" spans="3:6">
       <c r="C10" s="7"/>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="5:6">
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="27.75" spans="5:6">
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
